--- a/medicine/Enfance/Gérard_Moncomble/Gérard_Moncomble.xlsx
+++ b/medicine/Enfance/Gérard_Moncomble/Gérard_Moncomble.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Moncomble</t>
+          <t>Gérard_Moncomble</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gérard Moncomble, né le 19 mars 1951 à Auxi-le-Château (Pas-de-Calais), est un écrivain jeunesse, scénariste et illustrateur français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Moncomble</t>
+          <t>Gérard_Moncomble</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Enfant d’instituteurs, il débute dans les classes de ses parents où il doit être selon ses dires un « enfant modèle ». Ensuite, il fréquente le collège Courbet d’Abbeville, et fait des études de philosophie, de psychologie et de sociologie à l’université d'Amiens. Pendant ses études, en 1970, il eut un premier enfant, Boris. À la naissance de sa première fille Chloë en 1973, il part avec son épouse et ses enfants s’installer dans le Lot, exerçant divers métiers notamment le métier de tanneur-fourreur. Trois ans plus tard, en 1974, Il a une deuxième fille prénommée Maud et commence à réellement écrire en publiant un recueil de poésie qui tombera très vite dans l'oubli. Il écrit beaucoup sans être publié. En 1984, une jeune maison d’édition toulousaine, les éditions Milan, publient L’Île à Malices, une bande dessinée pour jeunes enfants venue tout droit des histoires qu’il invente pour ses propres enfants. Suivront des romans jeunesse, des bandes dessinées dont il écrit les scénarios (Les Chroniques de Zilda T., avec Alain Grand ; Vilaine, avec Alain Grand et David François). Il est aussi l’auteur d’essais (Dire, Lire, Écrire ; La Drague, tout un programme), de nouvelles, de théâtre…
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Moncomble</t>
+          <t>Gérard_Moncomble</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Livres jeunesse
-Moi-je (1996)
+          <t>Livres jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Moi-je (1996)
 Romain Gallo contre Charles Perrault, Milan, 1999
 Fabuleux Romain Gallo, Millan, 1999
 Les enquêtes de Freddy la Truffe
@@ -558,10 +577,44 @@
 achille bouzouk- Les fantomes d'Aham
 achille bouzouk- La balade du trouvamour
 achille bouzouk- Dans les griffes de Ggrok
-Bandes dessinées
-Les Chroniques de Zilda t. 1 : Un ange passe, avec Alain Grand, Les 400 Coups, 2001  (ISBN 2-84596-011-5)[1].
-Vilaine t. 1 : Mont-Borgne, avec Alain Grand, Milan, coll. « Treize étrange », 2007  (ISBN 978-2-7459-3000-2).
-Théâtre</t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gérard_Moncomble</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9rard_Moncomble</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Chroniques de Zilda t. 1 : Un ange passe, avec Alain Grand, Les 400 Coups, 2001  (ISBN 2-84596-011-5).
+Vilaine t. 1 : Mont-Borgne, avec Alain Grand, Milan, coll. « Treize étrange », 2007  (ISBN 978-2-7459-3000-2).</t>
         </is>
       </c>
     </row>
